--- a/data/long_dif/P24_1-Urba-long_dif.xlsx
+++ b/data/long_dif/P24_1-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>32,7%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>30,97%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>26,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>25,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>28,98%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>24,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24,05%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25,35%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>30,13%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>29,93%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>25,24%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>24,25%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,36; 31,77</t>
+          <t>20,82; 29,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,72; 38,76</t>
+          <t>27,0; 39,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,98; 37,48</t>
+          <t>26,34; 38,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,68; 30,39</t>
+          <t>21,22; 32,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 30,95</t>
+          <t>19,68; 30,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,99; 32,64</t>
+          <t>22,01; 29,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,23; 29,7</t>
+          <t>23,98; 31,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,88; 32,99</t>
+          <t>25,41; 32,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,95; 33,72</t>
+          <t>19,63; 28,11</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20,01; 28,15</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22,53; 28,57</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>26,59; 34,07</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>26,99; 33,9</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>22,0; 28,59</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>20,9; 27,56</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>49,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>43,55%</t>
+          <t>43,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>48,29%</t>
+          <t>48,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>50,62%</t>
+          <t>40,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,81%</t>
+          <t>46,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,87%</t>
+          <t>50,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>49,81%</t>
+          <t>43,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>43,69%</t>
+          <t>45,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>47,02%</t>
+          <t>44,05%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>44,92%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>50,14%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>43,34%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>46,66%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>42,16%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>45,82%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43,49; 54,11</t>
+          <t>44,33; 55,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,99; 48,96</t>
+          <t>37,79; 48,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,77; 53,95</t>
+          <t>42,27; 53,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>46,02; 55,0</t>
+          <t>32,68; 45,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,52; 49,04</t>
+          <t>40,36; 52,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,87; 50,27</t>
+          <t>46,22; 55,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,2; 53,15</t>
+          <t>39,13; 47,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>39,74; 47,42</t>
+          <t>41,25; 49,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,49; 50,46</t>
+          <t>39,03; 49,52</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>39,76; 50,21</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>46,63; 53,56</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>39,65; 46,59</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>43,26; 49,87</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>37,54; 46,06</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>41,89; 49,99</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,35%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>25,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,05%</t>
+          <t>31,95%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>31,03%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>24,51%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26,53%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>23,41%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>32,61%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>29,93%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,71; 30,63</t>
+          <t>21,26; 30,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,38; 29,07</t>
+          <t>19,89; 28,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,94; 24,29</t>
+          <t>17,28; 24,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,39; 26,58</t>
+          <t>27,3; 43,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,12; 33,63</t>
+          <t>23,72; 35,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,06; 28,88</t>
+          <t>20,32; 27,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,29; 27,16</t>
+          <t>24,76; 32,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,18; 30,35</t>
+          <t>22,45; 29,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,83; 25,85</t>
+          <t>27,17; 36,53</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>26,35; 36,33</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>21,65; 27,89</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>23,75; 29,79</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>20,8; 26,2</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>29,21; 39,26</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>26,54; 34,42</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,03%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,47; 30,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,5; 29,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,02; 30,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,99; 36,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,67; 35,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,77; 30,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,14; 32,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,57; 30,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,7; 29,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>47,61%</t>
+          <t>25,51%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>48,39%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>44,78%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>42,79%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>44,73%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>46,18%</t>
+          <t>30,31%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>47,23%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>46,56%</t>
+          <t>26,8%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20,42%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>27,68%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>27,25%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>25,96%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>26,83%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>18,65%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,08; 54,24</t>
+          <t>20,8; 32,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>46,04; 59,26</t>
+          <t>19,47; 29,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42,91; 53,78</t>
+          <t>20,55; 29,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,94; 50,26</t>
+          <t>21,12; 32,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>38,15; 48,01</t>
+          <t>10,82; 26,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,94; 49,43</t>
+          <t>25,43; 34,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,37; 50,09</t>
+          <t>25,64; 35,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>42,3; 51,49</t>
+          <t>23,09; 31,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>42,99; 50,54</t>
+          <t>22,31; 31,65</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13,83; 29,64</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>24,18; 31,43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>23,61; 30,93</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>23,04; 29,1</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>23,1; 30,62</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>13,69; 24,92</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>48,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>50,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>48,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>46,65%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,2%</t>
+          <t>40,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>44,58%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>43,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>44,45%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>37,41%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>45,99%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>46,5%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>46,87%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>46,23%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>42,01%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>43,3%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,18; 36,93</t>
+          <t>42,07; 53,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,75; 29,8</t>
+          <t>44,22; 57,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,67; 31,62</t>
+          <t>42,17; 53,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,46; 29,68</t>
+          <t>40,1; 53,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,58; 32,39</t>
+          <t>27,51; 51,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,58; 33,03</t>
+          <t>39,08; 49,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,7; 30,85</t>
+          <t>37,74; 48,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,25; 29,54</t>
+          <t>39,97; 49,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,26; 31,1</t>
+          <t>32,32; 42,62</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>35,83; 56,78</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>42,86; 50,34</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>42,83; 51,69</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>42,67; 49,72</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>37,35; 46,17</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>35,15; 50,73</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>25,09%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>27,11%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>32,97%</t>
+          <t>42,03%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>36,68%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>35,78%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>33,59%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>25,82%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>25,88%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>27,81%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>31,16%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>38,05%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,69; 27,82</t>
+          <t>21,4; 31,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29,19; 55,08</t>
+          <t>20,47; 30,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,98; 31,18</t>
+          <t>22,24; 32,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,45; 40,72</t>
+          <t>21,11; 34,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,34; 42,24</t>
+          <t>31,71; 60,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,27; 30,06</t>
+          <t>20,94; 30,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,09; 31,78</t>
+          <t>22,11; 32,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>29,76; 45,71</t>
+          <t>24,72; 32,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,57; 27,49</t>
+          <t>30,79; 41,65</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>24,08; 44,09</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>22,81; 29,78</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>22,31; 29,4</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>24,88; 31,76</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>27,35; 35,93</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>30,98; 49,24</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>42,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>49,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>46,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>44,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>44,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>43,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>47,11%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>30,4; 55,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31,51; 55,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,79; 59,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36,79; 55,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,84; 54,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>36,5; 53,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>35,93; 52,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>36,39; 51,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39,78; 54,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>42,1%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>28,98%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>31,03%</t>
+          <t>30,98%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>24,13%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>37,3%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>22,35%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>26,46%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>26,6; 54,14</t>
+          <t>11,11; 28,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,7; 24,41</t>
+          <t>30,72; 57,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21,01; 39,99</t>
+          <t>13,72; 30,86</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,02; 31,31</t>
+          <t>11,66; 34,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,26; 32,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>25,87; 41,65</t>
+          <t>21,61; 38,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>24,72; 41,28</t>
+          <t>23,85; 41,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,98; 26,15</t>
+          <t>15,71; 31,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>25,31; 38,2</t>
+          <t>21,42; 42,3</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>18,09; 30,41</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>30,38; 48,43</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>17,37; 28,57</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>17,99; 35,66</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>40,8%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>41,26%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>48,56%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>28,49%</t>
+          <t>42,27%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>43,54%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>44,86%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>38,53%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>43,72%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>42,38%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>46,75%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>40,41%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>21,16; 28,54</t>
+          <t>27,58; 52,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>26,12; 33,67</t>
+          <t>29,44; 52,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>24,4; 31,22</t>
+          <t>38,07; 60,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>25,65; 31,48</t>
+          <t>26,82; 58,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>26,13; 32,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>24,72; 29,84</t>
+          <t>37,86; 55,99</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>24,22; 28,76</t>
+          <t>32,88; 53,0</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>26,56; 31,79</t>
+          <t>35,9; 53,48</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>25,37; 29,69</t>
+          <t>28,09; 49,38</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>35,4; 51,15</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>34,58; 50,0</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>40,14; 53,59</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>31,69; 49,83</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>39,86%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>48,47%</t>
+          <t>29,3%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>47,89%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>45,3%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>47,73%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>45,09%</t>
+          <t>32,57%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>46,85%</t>
+          <t>30,49%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>32,15%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>20,31%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>30,9%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>33,12%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>43,94; 51,51</t>
+          <t>28,18; 57,7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>42,74; 50,89</t>
+          <t>9,53; 25,11</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>45,05; 52,13</t>
+          <t>20,33; 42,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>44,66; 51,07</t>
+          <t>21,43; 57,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>39,93; 46,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>42,27; 48,36</t>
+          <t>17,08; 32,62</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>45,23; 50,17</t>
+          <t>16,35; 34,93</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>42,52; 48,05</t>
+          <t>25,3; 41,96</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>44,55; 49,19</t>
+          <t>20,84; 40,93</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>25,35; 42,46</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>14,9; 26,51</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>25,1; 38,68</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>24,53; 46,23</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,765 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>24,48; 32,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>20,55; 26,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>21,4; 27,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>21,04; 26,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>24,93; 30,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>24,97; 30,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>23,62; 28,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>23,61; 28,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>23,68; 27,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>24,45%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>30,43%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>27,44%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>26,15%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>22,69%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>27,74%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>29,3%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>27,51%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>25,87%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>23,28%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>26,13%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>29,85%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>27,48%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>26,01%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>22,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>21,12; 28,06</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>26,74; 35,36</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>24,31; 31,76</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>22,31; 30,28</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>18,63; 27,33</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>25,11; 30,59</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>26,31; 32,13</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>24,97; 30,09</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>22,86; 29,01</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>19,66; 26,76</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>24,12; 28,47</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>27,63; 32,75</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>25,38; 29,69</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>23,61; 28,49</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>20,13; 26,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>48,1%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>46,04%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>48,16%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>42,98%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>45,36%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>47,79%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>43,26%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>44,91%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>40,87%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>45,15%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>47,94%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>44,62%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>46,5%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>41,89%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>45,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>44,33; 51,93</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>41,93; 50,3</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>44,44; 51,58</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>37,8; 47,74</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>39,5; 50,74</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>44,94; 51,16</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>40,14; 46,6</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>42,17; 47,94</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>37,64; 44,73</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>40,74; 49,75</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>45,45; 50,41</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>42,08; 47,18</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>44,25; 48,9</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>39,05; 44,95</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>41,29; 48,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>27,46%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>23,53%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>24,39%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>30,87%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>31,95%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>24,47%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>27,44%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>27,57%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>33,26%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>31,57%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>25,93%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>25,53%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>26,02%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>32,1%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>31,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>24,04; 31,33</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>20,62; 26,63</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>21,3; 27,72</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>26,08; 37,42</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>26,85; 38,82</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>21,89; 27,46</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>24,42; 30,24</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>25,0; 30,06</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>29,86; 37,06</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>27,15; 35,74</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>23,75; 28,33</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>23,38; 27,67</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 28,02</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>29,24; 35,15</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>28,39; 35,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P24_1-Urba-long_dif.xlsx
+++ b/data/long_dif/P24_1-Urba-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1783,7 +1783,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1924,7 +1924,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2228,7 +2228,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2387,7 +2387,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
